--- a/CdR/CdR.xlsx
+++ b/CdR/CdR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21255" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21255" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -679,32 +679,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -717,6 +699,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1044,207 +1044,207 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="33" thickTop="1" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="33" thickTop="1" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="33" thickTop="1" thickBot="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" thickTop="1" thickBot="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="33" thickTop="1" thickBot="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="48.75" thickTop="1" thickBot="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1284,50 +1284,50 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+    <sheetView topLeftCell="C55" workbookViewId="0">
       <selection activeCell="A64" sqref="A64:E64"/>
     </sheetView>
   </sheetViews>
@@ -1374,1122 +1374,1146 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="61.5" thickTop="1" thickBot="1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="61.5" thickTop="1" thickBot="1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="61.5" thickTop="1" thickBot="1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="61.5" thickTop="1" thickBot="1">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="91.5" thickTop="1" thickBot="1">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="10" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="1:5" ht="61.5" thickTop="1" thickBot="1">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A66:E66"/>
     <mergeCell ref="A82:E82"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A70:E70"/>
@@ -2498,30 +2522,6 @@
     <mergeCell ref="A76:E76"/>
     <mergeCell ref="A78:E78"/>
     <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
